--- a/Horas/Diciembre 2011.xlsx
+++ b/Horas/Diciembre 2011.xlsx
@@ -930,7 +930,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D15" s="12">
-        <v>0.79166666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>13</v>
@@ -941,7 +941,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D19" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>13</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">

--- a/Horas/Diciembre 2011.xlsx
+++ b/Horas/Diciembre 2011.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t>Fecha</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t>Sábado</t>
   </si>
 </sst>
 </file>
@@ -221,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,9 +252,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,7 +627,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D3" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -644,7 +638,7 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3" si="1">IF(MINUTE(D3)-MINUTE(C3)&lt;0,MINUTE(D3)-MINUTE(C3)+60,MINUTE(D3)-MINUTE(C3))</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6"/>
@@ -832,18 +826,18 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D11" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" ref="F11:F24" si="4">IF(MINUTE(C11)&lt;=MINUTE(D11),IF(E11="NO",HOUR(D11)-HOUR(C11),HOUR(D11)-HOUR(C11)-1),IF(E11="NO",HOUR(D11)-HOUR(C11)-1,HOUR(D11)-HOUR(C11)-1-1))</f>
+        <f t="shared" ref="F11:F23" si="4">IF(MINUTE(C11)&lt;=MINUTE(D11),IF(E11="NO",HOUR(D11)-HOUR(C11),HOUR(D11)-HOUR(C11)-1),IF(E11="NO",HOUR(D11)-HOUR(C11)-1,HOUR(D11)-HOUR(C11)-1-1))</f>
         <v>8</v>
       </c>
       <c r="G11" s="11">
-        <f t="shared" ref="G11:G24" si="5">IF(MINUTE(D11)-MINUTE(C11)&lt;0,MINUTE(D11)-MINUTE(C11)+60,MINUTE(D11)-MINUTE(C11))</f>
-        <v>15</v>
+        <f t="shared" ref="G11:G23" si="5">IF(MINUTE(D11)-MINUTE(C11)&lt;0,MINUTE(D11)-MINUTE(C11)+60,MINUTE(D11)-MINUTE(C11))</f>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -980,18 +974,18 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1028,18 +1022,18 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D19" s="12">
-        <v>0.8125</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1078,18 +1072,18 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D21" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,17 +1094,17 @@
         <v>40906</v>
       </c>
       <c r="C22" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D22" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="11">
         <f t="shared" si="5"/>
@@ -1128,14 +1122,14 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" s="11">
         <f t="shared" si="5"/>
@@ -1143,56 +1137,31 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2">
-        <v>40908</v>
-      </c>
-      <c r="C24" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="11">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="G24" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="E24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="15">
+        <f>SUM(F2:F23)</f>
+        <v>134</v>
+      </c>
+      <c r="G24" s="16">
+        <f>SUM(G2:G23)/60</f>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="15">
-        <f>SUM(F2:F24)</f>
-        <v>147</v>
-      </c>
-      <c r="G25" s="16">
-        <f>SUM(G2:G24)/60</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="18">
-        <f>ROUND(SUM(F25:G25),0)</f>
-        <v>152</v>
-      </c>
-      <c r="G26" s="19"/>
+      <c r="F25" s="17">
+        <f>ROUND(SUM(F24:G24),0)</f>
+        <v>141</v>
+      </c>
+      <c r="G25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horas/Diciembre 2011.xlsx
+++ b/Horas/Diciembre 2011.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
   <si>
     <t>Fecha</t>
   </si>
@@ -1118,21 +1118,19 @@
       <c r="B23" s="2">
         <v>40907</v>
       </c>
-      <c r="C23" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0.625</v>
+      <c r="C23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" s="11">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G23" s="11">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1142,7 +1140,7 @@
       </c>
       <c r="F24" s="15">
         <f>SUM(F2:F23)</f>
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G24" s="16">
         <f>SUM(G2:G23)/60</f>
@@ -1155,7 +1153,7 @@
       </c>
       <c r="F25" s="17">
         <f>ROUND(SUM(F24:G24),0)</f>
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G25" s="18"/>
     </row>

--- a/Horas/Diciembre 2011.xlsx
+++ b/Horas/Diciembre 2011.xlsx
@@ -832,11 +832,11 @@
         <v>16</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" ref="F11:F23" si="4">IF(MINUTE(C11)&lt;=MINUTE(D11),IF(E11="NO",HOUR(D11)-HOUR(C11),HOUR(D11)-HOUR(C11)-1),IF(E11="NO",HOUR(D11)-HOUR(C11)-1,HOUR(D11)-HOUR(C11)-1-1))</f>
+        <f t="shared" ref="F11:F22" si="4">IF(MINUTE(C11)&lt;=MINUTE(D11),IF(E11="NO",HOUR(D11)-HOUR(C11),HOUR(D11)-HOUR(C11)-1),IF(E11="NO",HOUR(D11)-HOUR(C11)-1,HOUR(D11)-HOUR(C11)-1-1))</f>
         <v>8</v>
       </c>
       <c r="G11" s="11">
-        <f t="shared" ref="G11:G23" si="5">IF(MINUTE(D11)-MINUTE(C11)&lt;0,MINUTE(D11)-MINUTE(C11)+60,MINUTE(D11)-MINUTE(C11))</f>
+        <f t="shared" ref="G11:G22" si="5">IF(MINUTE(D11)-MINUTE(C11)&lt;0,MINUTE(D11)-MINUTE(C11)+60,MINUTE(D11)-MINUTE(C11))</f>
         <v>45</v>
       </c>
     </row>
@@ -1097,18 +1097,18 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D22" s="12">
-        <v>0.85416666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="F24" s="15">
         <f>SUM(F2:F23)</f>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G24" s="16">
         <f>SUM(G2:G23)/60</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
